--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A647093-5439-4885-B1AA-E18EA3B277A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27103C-E233-4D2E-87B8-956C3A90EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
   </bookViews>
@@ -259,12 +259,6 @@
     <t xml:space="preserve"> 01 - DEFAULT VALUE </t>
   </si>
   <si>
-    <t xml:space="preserve"> 0076 - FIXED CHARGES TEST 1 </t>
-  </si>
-  <si>
-    <t>0001</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -272,6 +266,12 @@
   </si>
   <si>
     <t>0002</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0004</t>
   </si>
 </sst>
 </file>
@@ -713,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FCE01C-7500-4A8B-985D-BEF618A6C4BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1027,7 +1027,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1127,23 +1127,23 @@
       <c r="F2" s="5">
         <v>2023</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>77</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M2" s="7" t="s">
         <v>58</v>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_SM_COA_ComptrollerObjectProfile_AddNewProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\Rstars-Automation\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F27103C-E233-4D2E-87B8-956C3A90EF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14B84F5-BFFD-400D-97C4-61876EC4875D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
+    <workbookView xWindow="10" yWindow="610" windowWidth="19190" windowHeight="10190" activeTab="1" xr2:uid="{6C25441A-51F4-43D9-A1DD-792C2B41C053}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>Keyword</t>
   </si>
@@ -175,9 +175,6 @@
     <t>dropdown_nacuboSourceGroup_cop</t>
   </si>
   <si>
-    <t>selectByVisibleTextInput</t>
-  </si>
-  <si>
     <t>getData=Object</t>
   </si>
   <si>
@@ -259,19 +256,19 @@
     <t xml:space="preserve"> 01 - DEFAULT VALUE </t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>5950</t>
-  </si>
-  <si>
     <t>0002</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>0004</t>
+    <t>9009</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>5550</t>
+  </si>
+  <si>
+    <t>01</t>
   </si>
 </sst>
 </file>
@@ -713,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FCE01C-7500-4A8B-985D-BEF618A6C4BC}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,7 +856,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>39</v>
@@ -879,7 +876,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -893,7 +890,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -907,7 +904,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -921,7 +918,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -932,10 +929,10 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -946,10 +943,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -960,10 +957,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -974,10 +971,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -988,10 +985,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1002,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>7</v>
@@ -1026,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED8AD75-9C8C-48BF-829B-E339B3546C66}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1081,28 +1078,28 @@
         <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="P1" s="1">
         <v>1099</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>12</v>
@@ -1128,37 +1125,37 @@
         <v>2023</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="M2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="O2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="R2" s="5"/>
     </row>
